--- a/New Microsoft Excel Worksheet ram.xlsx
+++ b/New Microsoft Excel Worksheet ram.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">sname </t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>phone number</t>
+  </si>
+  <si>
+    <t>asfsfg</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -383,6 +386,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
